--- a/original_data/2016/North East Crime Report 2016.xlsx
+++ b/original_data/2016/North East Crime Report 2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="19035" windowHeight="11715" tabRatio="771" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="19035" windowHeight="11715" tabRatio="771" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Data" sheetId="18" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="87">
   <si>
     <t>LOCATION</t>
   </si>
@@ -248,9 +248,6 @@
     <t xml:space="preserve">TOTAL INCIDENTS - </t>
   </si>
   <si>
-    <t xml:space="preserve">INCIDENTS - </t>
-  </si>
-  <si>
     <t>DECEMBER 2016</t>
   </si>
   <si>
@@ -303,6 +300,18 @@
   </si>
   <si>
     <t>INCIDENTS - 22</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 20</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 34</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 31</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 29</t>
   </si>
 </sst>
 </file>
@@ -472,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -527,6 +536,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -752,28 +782,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,10 +1201,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1206,11 +1236,11 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(C2:J2)</f>
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="C2" s="3">
         <f>'Annual Totals'!C2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <f>'Annual Totals'!D2</f>
@@ -1218,27 +1248,27 @@
       </c>
       <c r="E2" s="3">
         <f>'Annual Totals'!E2</f>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3">
         <f>'Annual Totals'!F2</f>
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="G2" s="3">
         <f>'Annual Totals'!G2</f>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3">
         <f>'Annual Totals'!H2</f>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I2" s="3">
         <f>'Annual Totals'!I2</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J2" s="20">
         <f>'Annual Totals'!J2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1286,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:J35"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1271,10 +1301,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1301,10 +1331,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
         <v>0</v>
@@ -1315,56 +1345,56 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1443,11 +1473,11 @@
       <c r="D9" s="18">
         <v>0</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1</v>
       </c>
       <c r="G9" s="18">
         <v>0</v>
@@ -1478,8 +1508,8 @@
       <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="18">
-        <v>0</v>
+      <c r="F10" s="29">
+        <v>2</v>
       </c>
       <c r="G10" s="18">
         <v>0</v>
@@ -1548,8 +1578,8 @@
       <c r="G12" s="18">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
-        <v>0</v>
+      <c r="H12" s="29">
+        <v>1</v>
       </c>
       <c r="I12" s="18">
         <v>0</v>
@@ -1638,8 +1668,8 @@
       <c r="E15" s="18">
         <v>0</v>
       </c>
-      <c r="F15" s="18">
-        <v>0</v>
+      <c r="F15" s="29">
+        <v>1</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
@@ -1647,8 +1677,8 @@
       <c r="H15" s="18">
         <v>0</v>
       </c>
-      <c r="I15" s="18">
-        <v>0</v>
+      <c r="I15" s="29">
+        <v>1</v>
       </c>
       <c r="J15" s="18">
         <v>0</v>
@@ -1670,11 +1700,11 @@
       <c r="E16" s="18">
         <v>0</v>
       </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
+      <c r="F16" s="29">
+        <v>2</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1</v>
       </c>
       <c r="H16" s="18">
         <v>0</v>
@@ -1734,8 +1764,8 @@
       <c r="E18" s="18">
         <v>0</v>
       </c>
-      <c r="F18" s="18">
-        <v>0</v>
+      <c r="F18" s="29">
+        <v>2</v>
       </c>
       <c r="G18" s="18">
         <v>0</v>
@@ -1766,8 +1796,8 @@
       <c r="E19" s="18">
         <v>0</v>
       </c>
-      <c r="F19" s="18">
-        <v>0</v>
+      <c r="F19" s="29">
+        <v>1</v>
       </c>
       <c r="G19" s="18">
         <v>0</v>
@@ -1827,8 +1857,8 @@
       <c r="D21" s="18">
         <v>0</v>
       </c>
-      <c r="E21" s="18">
-        <v>0</v>
+      <c r="E21" s="29">
+        <v>1</v>
       </c>
       <c r="F21" s="18">
         <v>0</v>
@@ -1865,8 +1895,8 @@
       <c r="F22" s="18">
         <v>0</v>
       </c>
-      <c r="G22" s="18">
-        <v>0</v>
+      <c r="G22" s="29">
+        <v>1</v>
       </c>
       <c r="H22" s="18">
         <v>0</v>
@@ -1958,14 +1988,14 @@
       <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
+      <c r="F25" s="29">
+        <v>10</v>
       </c>
       <c r="G25" s="18">
         <v>0</v>
       </c>
-      <c r="H25" s="18">
-        <v>0</v>
+      <c r="H25" s="29">
+        <v>1</v>
       </c>
       <c r="I25" s="18">
         <v>0</v>
@@ -1990,8 +2020,8 @@
       <c r="E26" s="18">
         <v>0</v>
       </c>
-      <c r="F26" s="18">
-        <v>0</v>
+      <c r="F26" s="29">
+        <v>1</v>
       </c>
       <c r="G26" s="18">
         <v>0</v>
@@ -2022,8 +2052,8 @@
       <c r="E27" s="18">
         <v>0</v>
       </c>
-      <c r="F27" s="18">
-        <v>0</v>
+      <c r="F27" s="29">
+        <v>3</v>
       </c>
       <c r="G27" s="18">
         <v>0</v>
@@ -2034,8 +2064,8 @@
       <c r="I27" s="18">
         <v>0</v>
       </c>
-      <c r="J27" s="18">
-        <v>0</v>
+      <c r="J27" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,8 +2084,8 @@
       <c r="E28" s="18">
         <v>0</v>
       </c>
-      <c r="F28" s="18">
-        <v>0</v>
+      <c r="F28" s="29">
+        <v>1</v>
       </c>
       <c r="G28" s="18">
         <v>0</v>
@@ -2147,8 +2177,8 @@
       <c r="D31" s="18">
         <v>0</v>
       </c>
-      <c r="E31" s="18">
-        <v>0</v>
+      <c r="E31" s="29">
+        <v>1</v>
       </c>
       <c r="F31" s="18">
         <v>0</v>
@@ -2249,8 +2279,8 @@
       <c r="F34" s="18">
         <v>0</v>
       </c>
-      <c r="G34" s="18">
-        <v>0</v>
+      <c r="G34" s="29">
+        <v>1</v>
       </c>
       <c r="H34" s="18">
         <v>0</v>
@@ -2263,18 +2293,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -2341,8 +2371,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -2374,7 +2404,7 @@
       </c>
       <c r="B39" s="17">
         <f>SUM(C39:J39)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C39" s="7">
         <f>SUM(C8:C37)</f>
@@ -2386,27 +2416,27 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2458,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2444,10 +2474,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2474,10 +2504,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
         <v>0</v>
@@ -2488,23 +2518,23 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -2512,32 +2542,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -2648,11 +2678,11 @@
       <c r="D10" s="18">
         <v>0</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2</v>
       </c>
       <c r="G10" s="18">
         <v>0</v>
@@ -2715,8 +2745,8 @@
       <c r="E12" s="18">
         <v>0</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
+      <c r="F12" s="30">
+        <v>1</v>
       </c>
       <c r="G12" s="18">
         <v>0</v>
@@ -2747,8 +2777,8 @@
       <c r="E13" s="18">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
-        <v>0</v>
+      <c r="F13" s="30">
+        <v>1</v>
       </c>
       <c r="G13" s="18">
         <v>0</v>
@@ -2779,8 +2809,8 @@
       <c r="E14" s="18">
         <v>0</v>
       </c>
-      <c r="F14" s="18">
-        <v>0</v>
+      <c r="F14" s="30">
+        <v>1</v>
       </c>
       <c r="G14" s="18">
         <v>0</v>
@@ -2814,14 +2844,14 @@
       <c r="F15" s="18">
         <v>0</v>
       </c>
-      <c r="G15" s="18">
-        <v>0</v>
+      <c r="G15" s="30">
+        <v>1</v>
       </c>
       <c r="H15" s="18">
         <v>0</v>
       </c>
-      <c r="I15" s="18">
-        <v>0</v>
+      <c r="I15" s="30">
+        <v>1</v>
       </c>
       <c r="J15" s="18">
         <v>0</v>
@@ -2904,8 +2934,8 @@
       <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
+      <c r="E18" s="30">
+        <v>1</v>
       </c>
       <c r="F18" s="18">
         <v>0</v>
@@ -2913,8 +2943,8 @@
       <c r="G18" s="18">
         <v>0</v>
       </c>
-      <c r="H18" s="18">
-        <v>0</v>
+      <c r="H18" s="30">
+        <v>3</v>
       </c>
       <c r="I18" s="18">
         <v>0</v>
@@ -3003,8 +3033,8 @@
       <c r="E21" s="18">
         <v>0</v>
       </c>
-      <c r="F21" s="18">
-        <v>0</v>
+      <c r="F21" s="30">
+        <v>1</v>
       </c>
       <c r="G21" s="18">
         <v>0</v>
@@ -3012,8 +3042,8 @@
       <c r="H21" s="18">
         <v>0</v>
       </c>
-      <c r="I21" s="18">
-        <v>0</v>
+      <c r="I21" s="30">
+        <v>1</v>
       </c>
       <c r="J21" s="18">
         <v>0</v>
@@ -3035,8 +3065,8 @@
       <c r="E22" s="18">
         <v>0</v>
       </c>
-      <c r="F22" s="18">
-        <v>0</v>
+      <c r="F22" s="30">
+        <v>1</v>
       </c>
       <c r="G22" s="18">
         <v>0</v>
@@ -3096,17 +3126,17 @@
       <c r="D24" s="18">
         <v>0</v>
       </c>
-      <c r="E24" s="18">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0</v>
+      <c r="E24" s="30">
+        <v>2</v>
+      </c>
+      <c r="F24" s="30">
+        <v>1</v>
       </c>
       <c r="G24" s="18">
         <v>0</v>
       </c>
-      <c r="H24" s="18">
-        <v>0</v>
+      <c r="H24" s="30">
+        <v>1</v>
       </c>
       <c r="I24" s="18">
         <v>0</v>
@@ -3131,17 +3161,17 @@
       <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
+      <c r="F25" s="30">
+        <v>6</v>
+      </c>
+      <c r="G25" s="30">
+        <v>1</v>
       </c>
       <c r="H25" s="18">
         <v>0</v>
       </c>
-      <c r="I25" s="18">
-        <v>0</v>
+      <c r="I25" s="30">
+        <v>1</v>
       </c>
       <c r="J25" s="18">
         <v>0</v>
@@ -3192,8 +3222,8 @@
       <c r="D27" s="18">
         <v>0</v>
       </c>
-      <c r="E27" s="18">
-        <v>0</v>
+      <c r="E27" s="30">
+        <v>2</v>
       </c>
       <c r="F27" s="18">
         <v>0</v>
@@ -3227,8 +3257,8 @@
       <c r="E28" s="18">
         <v>0</v>
       </c>
-      <c r="F28" s="18">
-        <v>0</v>
+      <c r="F28" s="30">
+        <v>1</v>
       </c>
       <c r="G28" s="18">
         <v>0</v>
@@ -3291,8 +3321,8 @@
       <c r="E30" s="18">
         <v>0</v>
       </c>
-      <c r="F30" s="18">
-        <v>0</v>
+      <c r="F30" s="30">
+        <v>1</v>
       </c>
       <c r="G30" s="18">
         <v>0</v>
@@ -3436,18 +3466,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -3514,8 +3544,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -3547,7 +3577,7 @@
       </c>
       <c r="B39" s="17">
         <f>SUM(C39:J39)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C39" s="7">
         <f>SUM(C8:C37)</f>
@@ -3559,23 +3589,23 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
@@ -3601,7 +3631,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:J35"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3616,10 +3646,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -3646,13 +3676,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:J2" si="0">D39</f>
@@ -3664,19 +3694,19 @@
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -3684,32 +3714,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -3759,8 +3789,8 @@
       <c r="E8" s="18">
         <v>0</v>
       </c>
-      <c r="F8" s="18">
-        <v>0</v>
+      <c r="F8" s="31">
+        <v>1</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
@@ -3893,8 +3923,8 @@
       <c r="G12" s="18">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
-        <v>0</v>
+      <c r="H12" s="31">
+        <v>1</v>
       </c>
       <c r="I12" s="18">
         <v>0</v>
@@ -3992,8 +4022,8 @@
       <c r="H15" s="18">
         <v>0</v>
       </c>
-      <c r="I15" s="18">
-        <v>0</v>
+      <c r="I15" s="31">
+        <v>1</v>
       </c>
       <c r="J15" s="18">
         <v>0</v>
@@ -4082,8 +4112,8 @@
       <c r="F18" s="18">
         <v>0</v>
       </c>
-      <c r="G18" s="18">
-        <v>0</v>
+      <c r="G18" s="31">
+        <v>2</v>
       </c>
       <c r="H18" s="18">
         <v>0</v>
@@ -4181,8 +4211,8 @@
       <c r="G21" s="18">
         <v>0</v>
       </c>
-      <c r="H21" s="18">
-        <v>0</v>
+      <c r="H21" s="31">
+        <v>1</v>
       </c>
       <c r="I21" s="18">
         <v>0</v>
@@ -4303,8 +4333,8 @@
       <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
+      <c r="F25" s="31">
+        <v>7</v>
       </c>
       <c r="G25" s="18">
         <v>0</v>
@@ -4367,11 +4397,11 @@
       <c r="E27" s="18">
         <v>0</v>
       </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0</v>
+      <c r="F27" s="31">
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <v>1</v>
       </c>
       <c r="H27" s="18">
         <v>0</v>
@@ -4422,8 +4452,8 @@
       <c r="B29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="18">
-        <v>0</v>
+      <c r="C29" s="31">
+        <v>1</v>
       </c>
       <c r="D29" s="18">
         <v>0</v>
@@ -4431,8 +4461,8 @@
       <c r="E29" s="18">
         <v>0</v>
       </c>
-      <c r="F29" s="18">
-        <v>0</v>
+      <c r="F29" s="31">
+        <v>2</v>
       </c>
       <c r="G29" s="18">
         <v>0</v>
@@ -4463,8 +4493,8 @@
       <c r="E30" s="18">
         <v>0</v>
       </c>
-      <c r="F30" s="18">
-        <v>0</v>
+      <c r="F30" s="31">
+        <v>1</v>
       </c>
       <c r="G30" s="18">
         <v>0</v>
@@ -4495,8 +4525,8 @@
       <c r="E31" s="18">
         <v>0</v>
       </c>
-      <c r="F31" s="18">
-        <v>0</v>
+      <c r="F31" s="31">
+        <v>1</v>
       </c>
       <c r="G31" s="18">
         <v>0</v>
@@ -4608,18 +4638,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -4686,8 +4716,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -4719,11 +4749,11 @@
       </c>
       <c r="B39" s="17">
         <f>SUM(C39:J39)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C39" s="7">
         <f>SUM(C8:C37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7">
         <f t="shared" ref="D39:J39" si="1">SUM(D8:D37)</f>
@@ -4735,19 +4765,19 @@
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
@@ -4772,8 +4802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:J35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4783,15 +4813,15 @@
     <col min="3" max="3" width="11.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="9" customWidth="1"/>
     <col min="5" max="9" width="11.42578125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="9" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -4818,10 +4848,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
         <v>0</v>
@@ -4832,23 +4862,23 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -4856,32 +4886,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -4960,11 +4990,11 @@
       <c r="D9" s="18">
         <v>0</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
       </c>
       <c r="G9" s="18">
         <v>0</v>
@@ -4995,14 +5025,14 @@
       <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="18">
-        <v>0</v>
+      <c r="F10" s="32">
+        <v>4</v>
       </c>
       <c r="G10" s="18">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
-        <v>0</v>
+      <c r="H10" s="32">
+        <v>1</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -5088,8 +5118,8 @@
       <c r="D13" s="18">
         <v>0</v>
       </c>
-      <c r="E13" s="18">
-        <v>0</v>
+      <c r="E13" s="32">
+        <v>1</v>
       </c>
       <c r="F13" s="18">
         <v>0</v>
@@ -5155,8 +5185,8 @@
       <c r="E15" s="18">
         <v>0</v>
       </c>
-      <c r="F15" s="18">
-        <v>0</v>
+      <c r="F15" s="32">
+        <v>3</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
@@ -5187,14 +5217,14 @@
       <c r="E16" s="18">
         <v>0</v>
       </c>
-      <c r="F16" s="18">
-        <v>0</v>
+      <c r="F16" s="32">
+        <v>1</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
       </c>
-      <c r="H16" s="18">
-        <v>0</v>
+      <c r="H16" s="32">
+        <v>1</v>
       </c>
       <c r="I16" s="18">
         <v>0</v>
@@ -5251,8 +5281,8 @@
       <c r="E18" s="18">
         <v>0</v>
       </c>
-      <c r="F18" s="18">
-        <v>0</v>
+      <c r="F18" s="32">
+        <v>1</v>
       </c>
       <c r="G18" s="18">
         <v>0</v>
@@ -5446,8 +5476,8 @@
       <c r="F24" s="18">
         <v>0</v>
       </c>
-      <c r="G24" s="18">
-        <v>0</v>
+      <c r="G24" s="32">
+        <v>1</v>
       </c>
       <c r="H24" s="18">
         <v>0</v>
@@ -5475,17 +5505,17 @@
       <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
+      <c r="F25" s="32">
+        <v>8</v>
       </c>
       <c r="G25" s="18">
         <v>0</v>
       </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18">
-        <v>0</v>
+      <c r="H25" s="32">
+        <v>1</v>
+      </c>
+      <c r="I25" s="32">
+        <v>2</v>
       </c>
       <c r="J25" s="18">
         <v>0</v>
@@ -5536,11 +5566,11 @@
       <c r="D27" s="18">
         <v>0</v>
       </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0</v>
+      <c r="E27" s="32">
+        <v>1</v>
+      </c>
+      <c r="F27" s="32">
+        <v>1</v>
       </c>
       <c r="G27" s="18">
         <v>0</v>
@@ -5635,8 +5665,8 @@
       <c r="E30" s="18">
         <v>0</v>
       </c>
-      <c r="F30" s="18">
-        <v>0</v>
+      <c r="F30" s="32">
+        <v>1</v>
       </c>
       <c r="G30" s="18">
         <v>0</v>
@@ -5763,8 +5793,8 @@
       <c r="E34" s="18">
         <v>0</v>
       </c>
-      <c r="F34" s="18">
-        <v>0</v>
+      <c r="F34" s="32">
+        <v>1</v>
       </c>
       <c r="G34" s="18">
         <v>0</v>
@@ -5780,18 +5810,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -5858,8 +5888,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -5891,7 +5921,7 @@
       </c>
       <c r="B39" s="17">
         <f>SUM(C39:J39)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C39" s="7">
         <f>SUM(C8:C37)</f>
@@ -5903,23 +5933,23 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="21">
         <f>SUM(F8:F37)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G39" s="7">
         <f>SUM(G8:G37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
@@ -5944,8 +5974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:J35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5960,10 +5990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -5990,10 +6020,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
         <v>0</v>
@@ -6004,23 +6034,23 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -6028,32 +6058,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -6167,8 +6197,8 @@
       <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="18">
-        <v>0</v>
+      <c r="F10" s="33">
+        <v>3</v>
       </c>
       <c r="G10" s="18">
         <v>0</v>
@@ -6263,11 +6293,11 @@
       <c r="E13" s="18">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
+      <c r="G13" s="33">
+        <v>2</v>
       </c>
       <c r="H13" s="18">
         <v>0</v>
@@ -6327,8 +6357,8 @@
       <c r="E15" s="18">
         <v>0</v>
       </c>
-      <c r="F15" s="18">
-        <v>0</v>
+      <c r="F15" s="33">
+        <v>3</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
@@ -6423,17 +6453,17 @@
       <c r="E18" s="18">
         <v>0</v>
       </c>
-      <c r="F18" s="18">
-        <v>0</v>
+      <c r="F18" s="33">
+        <v>2</v>
       </c>
       <c r="G18" s="18">
         <v>0</v>
       </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
-        <v>0</v>
+      <c r="H18" s="33">
+        <v>1</v>
+      </c>
+      <c r="I18" s="33">
+        <v>2</v>
       </c>
       <c r="J18" s="18">
         <v>0</v>
@@ -6560,8 +6590,8 @@
       <c r="H22" s="18">
         <v>0</v>
       </c>
-      <c r="I22" s="18">
-        <v>0</v>
+      <c r="I22" s="33">
+        <v>1</v>
       </c>
       <c r="J22" s="18">
         <v>0</v>
@@ -6647,11 +6677,11 @@
       <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
+      <c r="F25" s="33">
+        <v>8</v>
+      </c>
+      <c r="G25" s="33">
+        <v>1</v>
       </c>
       <c r="H25" s="18">
         <v>0</v>
@@ -6708,14 +6738,14 @@
       <c r="D27" s="18">
         <v>0</v>
       </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0</v>
+      <c r="E27" s="33">
+        <v>1</v>
+      </c>
+      <c r="F27" s="33">
+        <v>1</v>
+      </c>
+      <c r="G27" s="33">
+        <v>1</v>
       </c>
       <c r="H27" s="18">
         <v>0</v>
@@ -6813,8 +6843,8 @@
       <c r="G30" s="18">
         <v>0</v>
       </c>
-      <c r="H30" s="18">
-        <v>0</v>
+      <c r="H30" s="33">
+        <v>1</v>
       </c>
       <c r="I30" s="18">
         <v>0</v>
@@ -6941,8 +6971,8 @@
       <c r="G34" s="18">
         <v>0</v>
       </c>
-      <c r="H34" s="18">
-        <v>0</v>
+      <c r="H34" s="33">
+        <v>1</v>
       </c>
       <c r="I34" s="18">
         <v>0</v>
@@ -6952,18 +6982,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -7030,8 +7060,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -7063,7 +7093,7 @@
       </c>
       <c r="B39" s="17">
         <f>SUM(C39:J39)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C39" s="7">
         <f>SUM(C8:C37)</f>
@@ -7075,23 +7105,23 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
@@ -7131,10 +7161,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -7161,13 +7191,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="7">
         <f>C39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:J2" si="0">D39</f>
@@ -7175,27 +7205,27 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -7223,32 +7253,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -7303,7 +7333,7 @@
       </c>
       <c r="F8" s="14">
         <f>SUM(January:December!F8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14">
         <f>SUM(January:December!G8)</f>
@@ -7339,11 +7369,11 @@
       </c>
       <c r="E9" s="14">
         <f>SUM(January:December!E9)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14">
         <f>SUM(January:December!F9)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="14">
         <f>SUM(January:December!G9)</f>
@@ -7351,7 +7381,7 @@
       </c>
       <c r="H9" s="14">
         <f>SUM(January:December!H9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="14">
         <f>SUM(January:December!I9)</f>
@@ -7379,11 +7409,11 @@
       </c>
       <c r="E10" s="14">
         <f>SUM(January:December!E10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="14">
         <f>SUM(January:December!F10)</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G10" s="14">
         <f>SUM(January:December!G10)</f>
@@ -7391,11 +7421,11 @@
       </c>
       <c r="H10" s="14">
         <f>SUM(January:December!H10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="14">
         <f>SUM(January:December!I10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="14">
         <f>SUM(January:December!J10)</f>
@@ -7463,15 +7493,15 @@
       </c>
       <c r="F12" s="14">
         <f>SUM(January:December!F12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="14">
         <f>SUM(January:December!G12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="14">
         <f>SUM(January:December!H12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="14">
         <f>SUM(January:December!I12)</f>
@@ -7499,19 +7529,19 @@
       </c>
       <c r="E13" s="14">
         <f>SUM(January:December!E13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="14">
         <f>SUM(January:December!F13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" s="14">
         <f>SUM(January:December!G13)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="14">
         <f>SUM(January:December!H13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" s="14">
         <f>SUM(January:December!I13)</f>
@@ -7543,7 +7573,7 @@
       </c>
       <c r="F14" s="14">
         <f>SUM(January:December!F14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="14">
         <f>SUM(January:December!G14)</f>
@@ -7583,19 +7613,19 @@
       </c>
       <c r="F15" s="14">
         <f>SUM(January:December!F15)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G15" s="14">
         <f>SUM(January:December!G15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" s="14">
         <f>SUM(January:December!H15)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="14">
         <f>SUM(January:December!I15)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="14">
         <f>SUM(January:December!J15)</f>
@@ -7619,19 +7649,19 @@
       </c>
       <c r="E16" s="14">
         <f>SUM(January:December!E16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="14">
         <f>SUM(January:December!F16)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G16" s="14">
         <f>SUM(January:December!G16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="14">
         <f>SUM(January:December!H16)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="14">
         <f>SUM(January:December!I16)</f>
@@ -7699,23 +7729,23 @@
       </c>
       <c r="E18" s="14">
         <f>SUM(January:December!E18)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="14">
         <f>SUM(January:December!F18)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G18" s="14">
         <f>SUM(January:December!G18)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="14">
         <f>SUM(January:December!H18)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I18" s="14">
         <f>SUM(January:December!I18)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" s="14">
         <f>SUM(January:December!J18)</f>
@@ -7743,7 +7773,7 @@
       </c>
       <c r="F19" s="14">
         <f>SUM(January:December!F19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="14">
         <f>SUM(January:December!G19)</f>
@@ -7819,23 +7849,23 @@
       </c>
       <c r="E21" s="14">
         <f>SUM(January:December!E21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="14">
         <f>SUM(January:December!F21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="14">
         <f>SUM(January:December!G21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="14">
         <f>SUM(January:December!H21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="14">
         <f>SUM(January:December!I21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="14">
         <f>SUM(January:December!J21)</f>
@@ -7863,11 +7893,11 @@
       </c>
       <c r="F22" s="14">
         <f>SUM(January:December!F22)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="14">
         <f>SUM(January:December!G22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="14">
         <f>SUM(January:December!H22)</f>
@@ -7875,7 +7905,7 @@
       </c>
       <c r="I22" s="14">
         <f>SUM(January:December!I22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="14">
         <f>SUM(January:December!J22)</f>
@@ -7939,19 +7969,19 @@
       </c>
       <c r="E24" s="14">
         <f>SUM(January:December!E24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="14">
         <f>SUM(January:December!F24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="14">
         <f>SUM(January:December!G24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="14">
         <f>SUM(January:December!H24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="14">
         <f>SUM(January:December!I24)</f>
@@ -7983,19 +8013,19 @@
       </c>
       <c r="F25" s="14">
         <f>SUM(January:December!F25)</f>
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G25" s="14">
         <f>SUM(January:December!G25)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" s="14">
         <f>SUM(January:December!H25)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I25" s="14">
         <f>SUM(January:December!I25)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="14">
         <f>SUM(January:December!J25)</f>
@@ -8023,7 +8053,7 @@
       </c>
       <c r="F26" s="14">
         <f>SUM(January:December!F26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="14">
         <f>SUM(January:December!G26)</f>
@@ -8031,7 +8061,7 @@
       </c>
       <c r="H26" s="14">
         <f>SUM(January:December!H26)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="14">
         <f>SUM(January:December!I26)</f>
@@ -8059,15 +8089,15 @@
       </c>
       <c r="E27" s="14">
         <f>SUM(January:December!E27)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F27" s="14">
         <f>SUM(January:December!F27)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G27" s="14">
         <f>SUM(January:December!G27)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="14">
         <f>SUM(January:December!H27)</f>
@@ -8079,7 +8109,7 @@
       </c>
       <c r="J27" s="14">
         <f>SUM(January:December!J27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8103,7 +8133,7 @@
       </c>
       <c r="F28" s="14">
         <f>SUM(January:December!F28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="14">
         <f>SUM(January:December!G28)</f>
@@ -8131,7 +8161,7 @@
       </c>
       <c r="C29" s="14">
         <f>SUM(January:December!C29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="14">
         <f>SUM(January:December!D29)</f>
@@ -8143,7 +8173,7 @@
       </c>
       <c r="F29" s="14">
         <f>SUM(January:December!F29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="14">
         <f>SUM(January:December!G29)</f>
@@ -8183,7 +8213,7 @@
       </c>
       <c r="F30" s="14">
         <f>SUM(January:December!F30)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" s="14">
         <f>SUM(January:December!G30)</f>
@@ -8191,11 +8221,11 @@
       </c>
       <c r="H30" s="14">
         <f>SUM(January:December!H30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="14">
         <f>SUM(January:December!I30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="14">
         <f>SUM(January:December!J30)</f>
@@ -8219,11 +8249,11 @@
       </c>
       <c r="E31" s="14">
         <f>SUM(January:December!E31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="14">
         <f>SUM(January:December!F31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="14">
         <f>SUM(January:December!G31)</f>
@@ -8343,15 +8373,15 @@
       </c>
       <c r="F34" s="14">
         <f>SUM(January:December!F34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="14">
         <f>SUM(January:December!G34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="14">
         <f>SUM(January:December!H34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="14">
         <f>SUM(January:December!I34)</f>
@@ -8363,18 +8393,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -8449,8 +8479,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -8482,11 +8512,11 @@
       </c>
       <c r="B39" s="17">
         <f>SUM(C39:J39)</f>
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="C39" s="7">
         <f>SUM(C8:C37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7">
         <f t="shared" ref="D39:J39" si="1">SUM(D8:D37)</f>
@@ -8494,27 +8524,27 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="G39" s="7">
         <f>SUM(G8:G37)</f>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H39" s="7">
         <f>SUM(H8:H37)</f>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I39" s="7">
         <f>SUM(I8:I37)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -8574,10 +8604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -8604,10 +8634,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f t="shared" ref="C2:J2" si="0">C39</f>
         <v>0</v>
@@ -8666,32 +8696,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -9590,18 +9620,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -9668,8 +9698,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -9769,10 +9799,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -9799,10 +9829,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f t="shared" ref="C2:J2" si="0">C39</f>
         <v>0</v>
@@ -9861,32 +9891,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -10785,18 +10815,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -10863,8 +10893,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -10965,10 +10995,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -10995,10 +11025,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
         <v>0</v>
@@ -11033,32 +11063,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -11957,18 +11987,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -12035,8 +12065,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -12133,10 +12163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -12163,10 +12193,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
         <v>0</v>
@@ -12201,32 +12231,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -13125,18 +13155,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -13203,8 +13233,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -13289,7 +13319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -13305,10 +13335,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -13335,10 +13365,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
         <v>0</v>
@@ -13373,32 +13403,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -14297,18 +14327,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -14375,8 +14405,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -14462,7 +14492,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14477,10 +14507,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -14507,10 +14537,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
         <v>0</v>
@@ -14521,23 +14551,23 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -14545,32 +14575,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -14652,8 +14682,8 @@
       <c r="E9" s="18">
         <v>0</v>
       </c>
-      <c r="F9" s="18">
-        <v>0</v>
+      <c r="F9" s="27">
+        <v>1</v>
       </c>
       <c r="G9" s="18">
         <v>0</v>
@@ -14681,11 +14711,11 @@
       <c r="D10" s="18">
         <v>0</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1</v>
       </c>
       <c r="G10" s="18">
         <v>0</v>
@@ -14754,8 +14784,8 @@
       <c r="G12" s="18">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
-        <v>0</v>
+      <c r="H12" s="27">
+        <v>1</v>
       </c>
       <c r="I12" s="18">
         <v>0</v>
@@ -14786,8 +14816,8 @@
       <c r="G13" s="18">
         <v>0</v>
       </c>
-      <c r="H13" s="18">
-        <v>0</v>
+      <c r="H13" s="27">
+        <v>3</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
@@ -14847,11 +14877,11 @@
       <c r="F15" s="18">
         <v>0</v>
       </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
+      <c r="G15" s="27">
+        <v>1</v>
+      </c>
+      <c r="H15" s="27">
+        <v>1</v>
       </c>
       <c r="I15" s="18">
         <v>0</v>
@@ -14873,8 +14903,8 @@
       <c r="D16" s="18">
         <v>0</v>
       </c>
-      <c r="E16" s="18">
-        <v>0</v>
+      <c r="E16" s="27">
+        <v>1</v>
       </c>
       <c r="F16" s="18">
         <v>0</v>
@@ -14882,8 +14912,8 @@
       <c r="G16" s="18">
         <v>0</v>
       </c>
-      <c r="H16" s="18">
-        <v>0</v>
+      <c r="H16" s="27">
+        <v>1</v>
       </c>
       <c r="I16" s="18">
         <v>0</v>
@@ -14940,8 +14970,8 @@
       <c r="E18" s="18">
         <v>0</v>
       </c>
-      <c r="F18" s="18">
-        <v>0</v>
+      <c r="F18" s="27">
+        <v>1</v>
       </c>
       <c r="G18" s="18">
         <v>0</v>
@@ -15039,8 +15069,8 @@
       <c r="F21" s="18">
         <v>0</v>
       </c>
-      <c r="G21" s="18">
-        <v>0</v>
+      <c r="G21" s="27">
+        <v>1</v>
       </c>
       <c r="H21" s="18">
         <v>0</v>
@@ -15129,8 +15159,8 @@
       <c r="D24" s="18">
         <v>0</v>
       </c>
-      <c r="E24" s="18">
-        <v>0</v>
+      <c r="E24" s="27">
+        <v>1</v>
       </c>
       <c r="F24" s="18">
         <v>0</v>
@@ -15164,11 +15194,11 @@
       <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
+      <c r="F25" s="27">
+        <v>4</v>
+      </c>
+      <c r="G25" s="27">
+        <v>1</v>
       </c>
       <c r="H25" s="18">
         <v>0</v>
@@ -15333,8 +15363,8 @@
       <c r="H30" s="18">
         <v>0</v>
       </c>
-      <c r="I30" s="18">
-        <v>0</v>
+      <c r="I30" s="27">
+        <v>1</v>
       </c>
       <c r="J30" s="18">
         <v>0</v>
@@ -15469,18 +15499,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -15547,8 +15577,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -15580,7 +15610,7 @@
       </c>
       <c r="B39" s="17">
         <f>SUM(C39:J39)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C39" s="7">
         <f>SUM(C8:C37)</f>
@@ -15592,23 +15622,23 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
@@ -15634,7 +15664,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15649,10 +15679,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -15679,10 +15709,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="7">
         <f>C39</f>
         <v>0</v>
@@ -15693,23 +15723,23 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -15717,32 +15747,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -15821,8 +15851,8 @@
       <c r="D9" s="18">
         <v>0</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
+      <c r="E9" s="28">
+        <v>2</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -15830,8 +15860,8 @@
       <c r="G9" s="18">
         <v>0</v>
       </c>
-      <c r="H9" s="18">
-        <v>0</v>
+      <c r="H9" s="28">
+        <v>1</v>
       </c>
       <c r="I9" s="18">
         <v>0</v>
@@ -15856,8 +15886,8 @@
       <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="18">
-        <v>0</v>
+      <c r="F10" s="28">
+        <v>5</v>
       </c>
       <c r="G10" s="18">
         <v>0</v>
@@ -15865,8 +15895,8 @@
       <c r="H10" s="18">
         <v>0</v>
       </c>
-      <c r="I10" s="18">
-        <v>0</v>
+      <c r="I10" s="28">
+        <v>1</v>
       </c>
       <c r="J10" s="18">
         <v>0</v>
@@ -15923,8 +15953,8 @@
       <c r="F12" s="18">
         <v>0</v>
       </c>
-      <c r="G12" s="18">
-        <v>0</v>
+      <c r="G12" s="28">
+        <v>1</v>
       </c>
       <c r="H12" s="18">
         <v>0</v>
@@ -15952,11 +15982,11 @@
       <c r="E13" s="18">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
+      <c r="F13" s="28">
+        <v>2</v>
+      </c>
+      <c r="G13" s="28">
+        <v>3</v>
       </c>
       <c r="H13" s="18">
         <v>0</v>
@@ -16016,11 +16046,11 @@
       <c r="E15" s="18">
         <v>0</v>
       </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
+      <c r="F15" s="28">
+        <v>3</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1</v>
       </c>
       <c r="H15" s="18">
         <v>0</v>
@@ -16048,8 +16078,8 @@
       <c r="E16" s="18">
         <v>0</v>
       </c>
-      <c r="F16" s="18">
-        <v>0</v>
+      <c r="F16" s="28">
+        <v>1</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
@@ -16301,8 +16331,8 @@
       <c r="D24" s="18">
         <v>0</v>
       </c>
-      <c r="E24" s="18">
-        <v>0</v>
+      <c r="E24" s="28">
+        <v>1</v>
       </c>
       <c r="F24" s="18">
         <v>0</v>
@@ -16336,14 +16366,14 @@
       <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
+      <c r="F25" s="28">
+        <v>4</v>
       </c>
       <c r="G25" s="18">
         <v>0</v>
       </c>
-      <c r="H25" s="18">
-        <v>0</v>
+      <c r="H25" s="28">
+        <v>1</v>
       </c>
       <c r="I25" s="18">
         <v>0</v>
@@ -16368,14 +16398,14 @@
       <c r="E26" s="18">
         <v>0</v>
       </c>
-      <c r="F26" s="18">
-        <v>0</v>
+      <c r="F26" s="28">
+        <v>1</v>
       </c>
       <c r="G26" s="18">
         <v>0</v>
       </c>
-      <c r="H26" s="18">
-        <v>0</v>
+      <c r="H26" s="28">
+        <v>1</v>
       </c>
       <c r="I26" s="18">
         <v>0</v>
@@ -16400,8 +16430,8 @@
       <c r="E27" s="18">
         <v>0</v>
       </c>
-      <c r="F27" s="18">
-        <v>0</v>
+      <c r="F27" s="28">
+        <v>1</v>
       </c>
       <c r="G27" s="18">
         <v>0</v>
@@ -16627,8 +16657,8 @@
       <c r="F34" s="18">
         <v>0</v>
       </c>
-      <c r="G34" s="18">
-        <v>0</v>
+      <c r="G34" s="28">
+        <v>1</v>
       </c>
       <c r="H34" s="18">
         <v>0</v>
@@ -16641,18 +16671,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -16719,8 +16749,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
@@ -16752,7 +16782,7 @@
       </c>
       <c r="B39" s="17">
         <f>SUM(C39:J39)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C39" s="7">
         <f>SUM(C8:C37)</f>
@@ -16764,23 +16794,23 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
